--- a/biology/Médecine/Hôpital_de_l'Enfant-Jésus_(Québec)/Hôpital_de_l'Enfant-Jésus_(Québec).xlsx
+++ b/biology/Médecine/Hôpital_de_l'Enfant-Jésus_(Québec)/Hôpital_de_l'Enfant-Jésus_(Québec).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_l%27Enfant-J%C3%A9sus_(Qu%C3%A9bec)</t>
+          <t>Hôpital_de_l'Enfant-Jésus_(Québec)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital de l'Enfant-Jésus est un hôpital du CHU de Québec-Université Laval, situé dans le quartier Maizerets, dans l'arrondissement La Cité-Limoilou.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_l%27Enfant-J%C3%A9sus_(Qu%C3%A9bec)</t>
+          <t>Hôpital_de_l'Enfant-Jésus_(Québec)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +526,127 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines et premiers emplacements
-L'hôpital est fondé le 31 janvier 1923 par la docteure Irma LeVasseur et ses collègues René Fortier, pédiatre, et Édouard Samson, orthopédiste[1],[2]. L'objectif visé par LeVasseur est la création d'un premier hôpital pédiatrique géré par des laïcs à Québec. L'hôpital reçoit son premier patient, Lucien Côté, au 55 Grande Allée (maison Joseph-Sheyhn)[2]. En mai 1923, la corporation est créée et un bureau médical est institué. L'archidiocèse de Québec permet à la corporation d'obtenir les services des Dominicaines de l'Enfant-Jésus. Une école des infirmières est également mise sur pied, laquelle s'affilie à l'Université Laval en 1928, puis au Cégep Limoilou en 1968. En octobre 1923, l'hôpital déménage dans l'ouest du quartier Saint-Sauveur, près du cimetière Saint-Charles.[réf. nécessaire]
-Croissance et ajout des spécialisations
-Le 14 mars 1927, l'hôpital s'installe définitivement dans l'ancien juvénat des Frères des Écoles chrétiennes, au 395, chemin de la Canardière. Il possède initialement 125 lits.
-Vers 1930, l'hôpital commence à offrir des soins spécialisés dans des domaines autres que la pédiatrie. En 1946, la corporation cède la propriété aux Sœurs Dominicaines[3]. En 1949, l'aile du Sacré-Cœur est inaugurée, portant le nombre de lits à 525 lits. Dans la deuxième moitié du XXe siècle, l'hôpital multiplie les nouveaux services médicaux et se surspécialise en neurologie et en traumatologie[réf. nécessaire].
+          <t>Origines et premiers emplacements</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est fondé le 31 janvier 1923 par la docteure Irma LeVasseur et ses collègues René Fortier, pédiatre, et Édouard Samson, orthopédiste,. L'objectif visé par LeVasseur est la création d'un premier hôpital pédiatrique géré par des laïcs à Québec. L'hôpital reçoit son premier patient, Lucien Côté, au 55 Grande Allée (maison Joseph-Sheyhn). En mai 1923, la corporation est créée et un bureau médical est institué. L'archidiocèse de Québec permet à la corporation d'obtenir les services des Dominicaines de l'Enfant-Jésus. Une école des infirmières est également mise sur pied, laquelle s'affilie à l'Université Laval en 1928, puis au Cégep Limoilou en 1968. En octobre 1923, l'hôpital déménage dans l'ouest du quartier Saint-Sauveur, près du cimetière Saint-Charles.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hôpital_de_l'Enfant-Jésus_(Québec)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_l%27Enfant-J%C3%A9sus_(Qu%C3%A9bec)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Croissance et ajout des spécialisations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 14 mars 1927, l'hôpital s'installe définitivement dans l'ancien juvénat des Frères des Écoles chrétiennes, au 395, chemin de la Canardière. Il possède initialement 125 lits.
+Vers 1930, l'hôpital commence à offrir des soins spécialisés dans des domaines autres que la pédiatrie. En 1946, la corporation cède la propriété aux Sœurs Dominicaines. En 1949, l'aile du Sacré-Cœur est inaugurée, portant le nombre de lits à 525 lits. Dans la deuxième moitié du XXe siècle, l'hôpital multiplie les nouveaux services médicaux et se surspécialise en neurologie et en traumatologie[réf. nécessaire].
 Le 30 septembre 1995, l'hôpital est administrativement fusionné avec l'hôpital du Saint-Sacrement pour former le Centre hospitalier affilié universitaire de Québec (CHA). Le CHA se fusionne à son tour au Centre hospitalier universitaire de Québec le 9 juillet 2012.
-Nouveau complexe hospitalier
-Le 11 avril 2017, le projet du « nouveau complexe hospitalier » (NCH) est annoncé[4]. À terme, il regroupera sur le même site l'Hôtel-Dieu de Québec, dont la fermeture est discutée depuis 2013, à l'hôpital de l'Enfant-Jésus. Le coût estimé est d'environ 2 milliards $[5].
-Les travaux de la phase 1 débutent en juin 2017[6]. Les infrastructures de cette phase sont livrés en 2020-2021 dont une centrale d'énergie, un stationnement souterrain et le Centre intégré de cancérologie. La phase 2 inclut la construction d'un centre de recherche, d'une nouvelle cheminée, du bâtiment des soins critiques et d'une nouvelle urgence. Le projet dans sa totalité pourrait être achevé en 2025[5].
-Nom
-En mars 2022, une pétition est lancée pour renommer l'hôpital du nom de sa cofondatrice et première femme médecin au Québec, Irma LeVasseur[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_de_l'Enfant-Jésus_(Québec)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_l%27Enfant-J%C3%A9sus_(Qu%C3%A9bec)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouveau complexe hospitalier</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 11 avril 2017, le projet du « nouveau complexe hospitalier » (NCH) est annoncé. À terme, il regroupera sur le même site l'Hôtel-Dieu de Québec, dont la fermeture est discutée depuis 2013, à l'hôpital de l'Enfant-Jésus. Le coût estimé est d'environ 2 milliards $.
+Les travaux de la phase 1 débutent en juin 2017. Les infrastructures de cette phase sont livrés en 2020-2021 dont une centrale d'énergie, un stationnement souterrain et le Centre intégré de cancérologie. La phase 2 inclut la construction d'un centre de recherche, d'une nouvelle cheminée, du bâtiment des soins critiques et d'une nouvelle urgence. Le projet dans sa totalité pourrait être achevé en 2025.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_de_l'Enfant-Jésus_(Québec)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_l%27Enfant-J%C3%A9sus_(Qu%C3%A9bec)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2022, une pétition est lancée pour renommer l'hôpital du nom de sa cofondatrice et première femme médecin au Québec, Irma LeVasseur.
 </t>
         </is>
       </c>
